--- a/excel-data/excel-files/Cost Allocation.xlsx
+++ b/excel-data/excel-files/Cost Allocation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr date1904="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bp365-my.sharepoint.com/personal/neal_smothers_bp_com/Documents/PowerBI/PowerBI Data/Drill_Prod Dashboard/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nealasmothers/Downloads/logisticsdashboard/excel-data/excel-files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="485" documentId="8_{A5D41373-EC45-BD4C-91C6-7934D9B78669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05A58F1A-EA34-724C-BDCA-03D7958826CB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BECA04D-118E-2B42-8536-0B5B48F2DEF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24040" yWindow="660" windowWidth="23900" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="920" windowWidth="34240" windowHeight="21260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2094" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2214" uniqueCount="378">
   <si>
     <t>16THR0101M</t>
   </si>
@@ -343,9 +343,6 @@
     <t>Thunder Horse Drilling</t>
   </si>
   <si>
-    <t>Steana IceMAX</t>
-  </si>
-  <si>
     <t>Mad Dog Prod</t>
   </si>
   <si>
@@ -1091,6 +1088,72 @@
   </si>
   <si>
     <t>Stena IceMAX</t>
+  </si>
+  <si>
+    <t>19.451</t>
+  </si>
+  <si>
+    <t>63.655</t>
+  </si>
+  <si>
+    <t>9.681</t>
+  </si>
+  <si>
+    <t>61.058</t>
+  </si>
+  <si>
+    <t>47.463</t>
+  </si>
+  <si>
+    <t>41.618</t>
+  </si>
+  <si>
+    <t>12.316</t>
+  </si>
+  <si>
+    <t>10140</t>
+  </si>
+  <si>
+    <t>H-S1DW0MAD5V-EX-D1-CF</t>
+  </si>
+  <si>
+    <t>Deepwater Invictus / Argos SWX4 BP01 (GC 868-1) Producer Comp: Mad Dog Compl Well - COMPLETE LL</t>
+  </si>
+  <si>
+    <t>26.346</t>
+  </si>
+  <si>
+    <t>20.596</t>
+  </si>
+  <si>
+    <t>10.041</t>
+  </si>
+  <si>
+    <t>12.884</t>
+  </si>
+  <si>
+    <t>8.173</t>
+  </si>
+  <si>
+    <t>7.548</t>
+  </si>
+  <si>
+    <t>10130</t>
+  </si>
+  <si>
+    <t>H-S1DC1MAD5E-EX-I0-T0-E5</t>
+  </si>
+  <si>
+    <t>Olympic Challenger / Argos Southwest Extension Fabrication AF: ASWX - Installation-System Tie-In</t>
+  </si>
+  <si>
+    <t>.565</t>
+  </si>
+  <si>
+    <t>.209</t>
+  </si>
+  <si>
+    <t>06-25</t>
   </si>
 </sst>
 </file>
@@ -1152,7 +1215,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1221,11 +1284,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1257,6 +1333,28 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1566,8 +1664,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{33A7C40E-F8DB-8846-891D-2511A2C70510}" name="Table1" displayName="Table1" ref="A1:H342" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8">
-  <autoFilter ref="A1:H342" xr:uid="{33A7C40E-F8DB-8846-891D-2511A2C70510}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{33A7C40E-F8DB-8846-891D-2511A2C70510}" name="Table1" displayName="Table1" ref="A1:H357" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8">
+  <autoFilter ref="A1:H357" xr:uid="{33A7C40E-F8DB-8846-891D-2511A2C70510}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{5D34487F-7319-6E43-9404-15E395E1F68F}" name="LC Number" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{D3F7691A-D562-BF4E-8766-44E0EE958D40}" name="Cost Element" dataDxfId="6"/>
@@ -1869,10 +1967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H342"/>
+  <dimension ref="A1:H360"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A323" sqref="A323:H342"/>
+    <sheetView tabSelected="1" topLeftCell="A329" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E358" sqref="E358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1889,7 +1987,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>36</v>
@@ -1907,7 +2005,7 @@
         <v>104</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>39</v>
@@ -1930,10 +2028,10 @@
         <v>105</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>14</v>
@@ -1956,10 +2054,10 @@
         <v>106</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>14</v>
@@ -1979,13 +2077,13 @@
         <v>31.177</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>107</v>
+        <v>355</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>14</v>
@@ -2008,10 +2106,10 @@
         <v>106</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>14</v>
@@ -2034,10 +2132,10 @@
         <v>8</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>14</v>
@@ -2060,10 +2158,10 @@
         <v>10</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>14</v>
@@ -2083,13 +2181,13 @@
         <v>10.78</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>53</v>
@@ -2109,13 +2207,13 @@
         <v>40.088000000000001</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>56</v>
@@ -2138,10 +2236,10 @@
         <v>8</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>59</v>
@@ -2161,13 +2259,13 @@
         <v>41.22</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>62</v>
@@ -2190,10 +2288,10 @@
         <v>20</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>65</v>
@@ -2213,13 +2311,13 @@
         <v>12.375</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>68</v>
@@ -2239,13 +2337,13 @@
         <v>10.917999999999999</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>71</v>
@@ -2268,10 +2366,10 @@
         <v>106</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>74</v>
@@ -2291,13 +2389,13 @@
         <v>12.432</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>77</v>
@@ -2320,10 +2418,10 @@
         <v>20</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>79</v>
@@ -2343,13 +2441,13 @@
         <v>12.356999999999999</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>82</v>
@@ -2369,13 +2467,13 @@
         <v>3.1190000000000002</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>85</v>
@@ -2395,13 +2493,13 @@
         <v>13.33</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>88</v>
@@ -2424,10 +2522,10 @@
         <v>34</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>91</v>
@@ -2447,13 +2545,13 @@
         <v>0.67700000000000005</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>94</v>
@@ -2476,10 +2574,10 @@
         <v>20</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>14</v>
@@ -2502,10 +2600,10 @@
         <v>106</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>2</v>
@@ -2525,13 +2623,13 @@
         <v>60.441000000000003</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>107</v>
+        <v>355</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>14</v>
@@ -2554,10 +2652,10 @@
         <v>8</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>14</v>
@@ -2580,10 +2678,10 @@
         <v>20</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>14</v>
@@ -2606,10 +2704,10 @@
         <v>8</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>14</v>
@@ -2632,10 +2730,10 @@
         <v>10</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>14</v>
@@ -2658,10 +2756,10 @@
         <v>105</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>14</v>
@@ -2681,13 +2779,13 @@
         <v>18.622</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>14</v>
@@ -2710,10 +2808,10 @@
         <v>106</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>14</v>
@@ -2733,13 +2831,13 @@
         <v>19.378</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>14</v>
@@ -2759,13 +2857,13 @@
         <v>9.6419999999999995</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>14</v>
@@ -2788,10 +2886,10 @@
         <v>10</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>14</v>
@@ -2811,13 +2909,13 @@
         <v>29.667999999999999</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>14</v>
@@ -2837,13 +2935,13 @@
         <v>25.908999999999999</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>14</v>
@@ -2863,13 +2961,13 @@
         <v>4.6130000000000004</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>14</v>
@@ -2889,13 +2987,13 @@
         <v>1.99</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>14</v>
@@ -2915,13 +3013,13 @@
         <v>7.0780000000000003</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>14</v>
@@ -2941,13 +3039,13 @@
         <v>7.5140000000000002</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>14</v>
@@ -2967,13 +3065,13 @@
         <v>1.343</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>14</v>
@@ -2996,10 +3094,10 @@
         <v>106</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>2</v>
@@ -3010,22 +3108,22 @@
         <v>10000</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="D44" s="1">
         <v>46.085999999999999</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>14</v>
@@ -3048,10 +3146,10 @@
         <v>105</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>14</v>
@@ -3071,13 +3169,13 @@
         <v>62.722000000000001</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>107</v>
+        <v>355</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>14</v>
@@ -3100,10 +3198,10 @@
         <v>8</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>14</v>
@@ -3123,13 +3221,13 @@
         <v>33.822000000000003</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>14</v>
@@ -3149,13 +3247,13 @@
         <v>15.458</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>14</v>
@@ -3166,7 +3264,7 @@
         <v>9985</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>3</v>
@@ -3178,10 +3276,10 @@
         <v>106</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>14</v>
@@ -3204,10 +3302,10 @@
         <v>10</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>14</v>
@@ -3218,22 +3316,22 @@
         <v>10017</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="D52" s="1">
         <v>0.91100000000000003</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>14</v>
@@ -3253,13 +3351,13 @@
         <v>13.327</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>14</v>
@@ -3279,13 +3377,13 @@
         <v>0.30299999999999999</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>14</v>
@@ -3305,13 +3403,13 @@
         <v>6.3040000000000003</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>14</v>
@@ -3331,13 +3429,13 @@
         <v>12.135</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>14</v>
@@ -3357,13 +3455,13 @@
         <v>5.585</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>14</v>
@@ -3383,13 +3481,13 @@
         <v>12.099</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>14</v>
@@ -3409,13 +3507,13 @@
         <v>0.51800000000000002</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>14</v>
@@ -3426,10 +3524,10 @@
         <v>10008</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="D60" s="1">
         <v>1.556</v>
@@ -3438,10 +3536,10 @@
         <v>106</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>14</v>
@@ -3461,13 +3559,13 @@
         <v>1.381</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>14</v>
@@ -3490,10 +3588,10 @@
         <v>106</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>2</v>
@@ -3504,22 +3602,22 @@
         <v>10003</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="D63" s="1">
         <v>42.377000000000002</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>107</v>
+        <v>355</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>14</v>
@@ -3530,7 +3628,7 @@
         <v>10007</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>106</v>
@@ -3542,10 +3640,10 @@
         <v>106</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>14</v>
@@ -3565,13 +3663,13 @@
         <v>12.678000000000001</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>14</v>
@@ -3594,10 +3692,10 @@
         <v>105</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>14</v>
@@ -3617,13 +3715,13 @@
         <v>4.8920000000000003</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>14</v>
@@ -3643,13 +3741,13 @@
         <v>19.596</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>107</v>
+        <v>355</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>14</v>
@@ -3672,10 +3770,10 @@
         <v>8</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>14</v>
@@ -3686,10 +3784,10 @@
         <v>10008</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="D70" s="1">
         <v>8.8650000000000002</v>
@@ -3698,10 +3796,10 @@
         <v>106</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>14</v>
@@ -3712,22 +3810,22 @@
         <v>10015</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="D71" s="1">
         <v>14.01</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>14</v>
@@ -3747,13 +3845,13 @@
         <v>20.673999999999999</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>14</v>
@@ -3773,13 +3871,13 @@
         <v>13.545999999999999</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>14</v>
@@ -3790,22 +3888,22 @@
         <v>10000</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="D74" s="1">
         <v>33.344999999999999</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>14</v>
@@ -3816,22 +3914,22 @@
         <v>10011</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="D75" s="1">
         <v>26.908000000000001</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>14</v>
@@ -3842,22 +3940,22 @@
         <v>10017</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="D76" s="1">
         <v>7.5940000000000003</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>14</v>
@@ -3868,7 +3966,7 @@
         <v>9993</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>18</v>
@@ -3877,13 +3975,13 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>14</v>
@@ -3903,13 +4001,13 @@
         <v>2.68</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>14</v>
@@ -3929,13 +4027,13 @@
         <v>12.981999999999999</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>14</v>
@@ -3955,13 +4053,13 @@
         <v>0.47099999999999997</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>14</v>
@@ -3972,22 +4070,22 @@
         <v>10026</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D81" s="1">
         <v>3.1909999999999998</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>2</v>
@@ -3998,22 +4096,22 @@
         <v>10003</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="D82" s="1">
         <v>62.593000000000004</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>107</v>
+        <v>355</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>14</v>
@@ -4024,7 +4122,7 @@
         <v>10007</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>106</v>
@@ -4036,10 +4134,10 @@
         <v>106</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>14</v>
@@ -4050,10 +4148,10 @@
         <v>10020</v>
       </c>
       <c r="B84" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="D84" s="1">
         <v>14.757999999999999</v>
@@ -4062,10 +4160,10 @@
         <v>8</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>14</v>
@@ -4076,7 +4174,7 @@
         <v>9993</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>18</v>
@@ -4085,13 +4183,13 @@
         <v>36.279000000000003</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>14</v>
@@ -4114,10 +4212,10 @@
         <v>8</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>14</v>
@@ -4128,22 +4226,22 @@
         <v>10015</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="D87" s="1">
         <v>17.943000000000001</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>14</v>
@@ -4154,22 +4252,22 @@
         <v>10026</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D88" s="1">
         <v>41.561999999999998</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>14</v>
@@ -4180,22 +4278,22 @@
         <v>10027</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="D89" s="1">
         <v>1.2E-2</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>14</v>
@@ -4218,10 +4316,10 @@
         <v>105</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>14</v>
@@ -4241,13 +4339,13 @@
         <v>20.109000000000002</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>14</v>
@@ -4267,13 +4365,13 @@
         <v>8.2629999999999999</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>14</v>
@@ -4284,22 +4382,22 @@
         <v>10028</v>
       </c>
       <c r="B93" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="D93" s="1">
         <v>1.7170000000000001</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>14</v>
@@ -4319,13 +4417,13 @@
         <v>22.577999999999999</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>14</v>
@@ -4336,22 +4434,22 @@
         <v>10000</v>
       </c>
       <c r="B95" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="D95" s="1">
         <v>3.5049999999999999</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F95" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>14</v>
@@ -4362,22 +4460,22 @@
         <v>10021</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="D96" s="1">
         <v>21.114999999999998</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>2</v>
@@ -4397,13 +4495,13 @@
         <v>9.7420000000000009</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>2</v>
@@ -4423,13 +4521,13 @@
         <v>6.0309999999999997</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>2</v>
@@ -4440,22 +4538,22 @@
         <v>10011</v>
       </c>
       <c r="B99" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="D99" s="1">
         <v>0.19800000000000001</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>14</v>
@@ -4466,7 +4564,7 @@
         <v>9993</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>18</v>
@@ -4475,13 +4573,13 @@
         <v>42.372999999999998</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>14</v>
@@ -4492,22 +4590,22 @@
         <v>10021</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="D101" s="1">
         <v>40.851999999999997</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>2</v>
@@ -4527,13 +4625,13 @@
         <v>6.9989999999999997</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>2</v>
@@ -4553,13 +4651,13 @@
         <v>3.403</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>2</v>
@@ -4570,22 +4668,22 @@
         <v>10003</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D104" s="1">
         <v>56.954000000000001</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>107</v>
+        <v>355</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>14</v>
@@ -4596,7 +4694,7 @@
         <v>10007</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>106</v>
@@ -4608,10 +4706,10 @@
         <v>106</v>
       </c>
       <c r="F105" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>14</v>
@@ -4622,10 +4720,10 @@
         <v>10020</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="D106" s="1">
         <v>27.204999999999998</v>
@@ -4634,10 +4732,10 @@
         <v>8</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>14</v>
@@ -4648,22 +4746,22 @@
         <v>10028</v>
       </c>
       <c r="B107" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="D107" s="1">
         <v>47.438000000000002</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>14</v>
@@ -4674,10 +4772,10 @@
         <v>10031</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="D108" s="1">
         <v>4.9269999999999996</v>
@@ -4686,10 +4784,10 @@
         <v>106</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>14</v>
@@ -4703,19 +4801,19 @@
         <v>12</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D109" s="1">
         <v>13.856999999999999</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>14</v>
@@ -4738,10 +4836,10 @@
         <v>105</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>14</v>
@@ -4761,13 +4859,13 @@
         <v>21.73</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>14</v>
@@ -4787,13 +4885,13 @@
         <v>11.093</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F112" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>14</v>
@@ -4804,22 +4902,22 @@
         <v>10027</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="D113" s="1">
         <v>2.871</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F113" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>14</v>
@@ -4830,22 +4928,22 @@
         <v>10029</v>
       </c>
       <c r="B114" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="D114" s="1">
         <v>10.096</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F114" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>14</v>
@@ -4856,22 +4954,22 @@
         <v>10039</v>
       </c>
       <c r="B115" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="D115" s="1">
         <v>0.69499999999999995</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F115" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>14</v>
@@ -4882,22 +4980,22 @@
         <v>10021</v>
       </c>
       <c r="B116" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="D116" s="1">
         <v>11.08</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F116" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>2</v>
@@ -4908,10 +5006,10 @@
         <v>10016</v>
       </c>
       <c r="B117" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="D117" s="1">
         <v>22.227</v>
@@ -4920,10 +5018,10 @@
         <v>8</v>
       </c>
       <c r="F117" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>14</v>
@@ -4934,10 +5032,10 @@
         <v>10020</v>
       </c>
       <c r="B118" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="D118" s="1">
         <v>6.57</v>
@@ -4946,10 +5044,10 @@
         <v>8</v>
       </c>
       <c r="F118" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>14</v>
@@ -4960,10 +5058,10 @@
         <v>10041</v>
       </c>
       <c r="B119" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="D119" s="1">
         <v>13.574999999999999</v>
@@ -4972,10 +5070,10 @@
         <v>8</v>
       </c>
       <c r="F119" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>14</v>
@@ -4986,22 +5084,22 @@
         <v>10043</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="D120" s="1">
         <v>2.1070000000000002</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F120" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>14</v>
@@ -5021,13 +5119,13 @@
         <v>22.588999999999999</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F121" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>14</v>
@@ -5038,7 +5136,7 @@
         <v>9993</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>18</v>
@@ -5047,13 +5145,13 @@
         <v>37.71</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F122" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>14</v>
@@ -5064,22 +5162,22 @@
         <v>10029</v>
       </c>
       <c r="B123" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="D123" s="1">
         <v>55.267000000000003</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F123" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>14</v>
@@ -5090,22 +5188,22 @@
         <v>10047</v>
       </c>
       <c r="B124" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C124" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="D124" s="1">
         <v>1.3240000000000001</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F124" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>14</v>
@@ -5119,19 +5217,19 @@
         <v>12</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D125" s="1">
         <v>8.2910000000000004</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F125" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>14</v>
@@ -5154,10 +5252,10 @@
         <v>105</v>
       </c>
       <c r="F126" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>14</v>
@@ -5177,13 +5275,13 @@
         <v>14.786</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F127" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>14</v>
@@ -5194,22 +5292,22 @@
         <v>10003</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D128" s="1">
         <v>52.415999999999997</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>107</v>
+        <v>355</v>
       </c>
       <c r="F128" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>14</v>
@@ -5220,10 +5318,10 @@
         <v>10031</v>
       </c>
       <c r="B129" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C129" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="D129" s="1">
         <v>11.824999999999999</v>
@@ -5232,10 +5330,10 @@
         <v>106</v>
       </c>
       <c r="F129" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>14</v>
@@ -5246,22 +5344,22 @@
         <v>10024</v>
       </c>
       <c r="B130" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="D130" s="1">
         <v>1.6679999999999999</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F130" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>14</v>
@@ -5272,10 +5370,10 @@
         <v>10052</v>
       </c>
       <c r="B131" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="D131" s="1">
         <v>1.43</v>
@@ -5284,10 +5382,10 @@
         <v>105</v>
       </c>
       <c r="F131" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>14</v>
@@ -5298,22 +5396,22 @@
         <v>10019</v>
       </c>
       <c r="B132" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C132" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>160</v>
       </c>
       <c r="D132" s="3">
         <v>2.617</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>107</v>
+        <v>355</v>
       </c>
       <c r="F132" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H132" s="3" t="s">
         <v>14</v>
@@ -5324,10 +5422,10 @@
         <v>10033</v>
       </c>
       <c r="B133" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="D133" s="1">
         <v>8.577</v>
@@ -5336,10 +5434,10 @@
         <v>106</v>
       </c>
       <c r="F133" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>14</v>
@@ -5359,13 +5457,13 @@
         <v>11.349</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F134" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>14</v>
@@ -5385,13 +5483,13 @@
         <v>3.0859999999999999</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F135" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>14</v>
@@ -5402,22 +5500,22 @@
         <v>10019</v>
       </c>
       <c r="B136" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="D136" s="1">
         <v>95.087999999999994</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>107</v>
+        <v>355</v>
       </c>
       <c r="F136" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>14</v>
@@ -5428,22 +5526,22 @@
         <v>10043</v>
       </c>
       <c r="B137" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="D137" s="1">
         <v>61.634999999999998</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F137" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>14</v>
@@ -5454,10 +5552,10 @@
         <v>10041</v>
       </c>
       <c r="B138" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C138" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="D138" s="1">
         <v>2.8530000000000002</v>
@@ -5466,10 +5564,10 @@
         <v>8</v>
       </c>
       <c r="F138" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>14</v>
@@ -5480,22 +5578,22 @@
         <v>10047</v>
       </c>
       <c r="B139" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C139" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="D139" s="1">
         <v>5.5549999999999997</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F139" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>14</v>
@@ -5509,19 +5607,19 @@
         <v>12</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D140" s="1">
         <v>6.6829999999999998</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F140" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>14</v>
@@ -5544,10 +5642,10 @@
         <v>105</v>
       </c>
       <c r="F141" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>14</v>
@@ -5567,13 +5665,13 @@
         <v>26.695</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F142" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>14</v>
@@ -5593,13 +5691,13 @@
         <v>8.77</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F143" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>14</v>
@@ -5610,10 +5708,10 @@
         <v>10031</v>
       </c>
       <c r="B144" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="D144" s="1">
         <v>4.4359999999999999</v>
@@ -5622,10 +5720,10 @@
         <v>106</v>
       </c>
       <c r="F144" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>14</v>
@@ -5636,10 +5734,10 @@
         <v>10033</v>
       </c>
       <c r="B145" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C145" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="D145" s="1">
         <v>33.26</v>
@@ -5648,10 +5746,10 @@
         <v>106</v>
       </c>
       <c r="F145" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>29</v>
@@ -5662,10 +5760,10 @@
         <v>10052</v>
       </c>
       <c r="B146" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C146" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="D146" s="1">
         <v>4.0819999999999999</v>
@@ -5674,10 +5772,10 @@
         <v>105</v>
       </c>
       <c r="F146" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>14</v>
@@ -5688,10 +5786,10 @@
         <v>10057</v>
       </c>
       <c r="B147" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C147" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="D147" s="1">
         <v>12.045999999999999</v>
@@ -5700,10 +5798,10 @@
         <v>8</v>
       </c>
       <c r="F147" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>14</v>
@@ -5714,22 +5812,22 @@
         <v>10051</v>
       </c>
       <c r="B148" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C148" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="D148" s="1">
         <v>0.77700000000000002</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F148" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>14</v>
@@ -5740,10 +5838,10 @@
         <v>10053</v>
       </c>
       <c r="B149" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C149" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="D149" s="1">
         <v>16.457999999999998</v>
@@ -5752,10 +5850,10 @@
         <v>8</v>
       </c>
       <c r="F149" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>14</v>
@@ -5766,22 +5864,22 @@
         <v>10003</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D150" s="1">
         <v>3.242</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>107</v>
+        <v>355</v>
       </c>
       <c r="F150" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>14</v>
@@ -5792,22 +5890,22 @@
         <v>10054</v>
       </c>
       <c r="B151" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C151" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="D151" s="1">
         <v>1.036</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>107</v>
+        <v>355</v>
       </c>
       <c r="F151" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>14</v>
@@ -5827,13 +5925,13 @@
         <v>7.8070000000000004</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F152" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>14</v>
@@ -5853,13 +5951,13 @@
         <v>3.2490000000000001</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F153" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>14</v>
@@ -5870,7 +5968,7 @@
         <v>9993</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>18</v>
@@ -5879,13 +5977,13 @@
         <v>0.20200000000000001</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F154" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>14</v>
@@ -5896,22 +5994,22 @@
         <v>10042</v>
       </c>
       <c r="B155" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C155" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="D155" s="1">
         <v>33.215000000000003</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>107</v>
+        <v>355</v>
       </c>
       <c r="F155" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>14</v>
@@ -5922,10 +6020,10 @@
         <v>10031</v>
       </c>
       <c r="B156" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C156" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="D156" s="1">
         <v>17.818999999999999</v>
@@ -5934,10 +6032,10 @@
         <v>106</v>
       </c>
       <c r="F156" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>14</v>
@@ -5948,22 +6046,22 @@
         <v>10047</v>
       </c>
       <c r="B157" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C157" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="D157" s="1">
         <v>3.8690000000000002</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F157" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>14</v>
@@ -5974,22 +6072,22 @@
         <v>10056</v>
       </c>
       <c r="B158" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C158" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="D158" s="1">
         <v>51.588999999999999</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F158" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>14</v>
@@ -6000,22 +6098,22 @@
         <v>10069</v>
       </c>
       <c r="B159" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C159" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="D159" s="1">
         <v>2.363</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F159" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H159" s="1" t="s">
         <v>14</v>
@@ -6029,19 +6127,19 @@
         <v>12</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D160" s="1">
         <v>20.561</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F160" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>14</v>
@@ -6064,10 +6162,10 @@
         <v>105</v>
       </c>
       <c r="F161" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>14</v>
@@ -6087,13 +6185,13 @@
         <v>21.873000000000001</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F162" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>14</v>
@@ -6113,13 +6211,13 @@
         <v>8.9670000000000005</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F163" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H163" s="1" t="s">
         <v>14</v>
@@ -6130,10 +6228,10 @@
         <v>10060</v>
       </c>
       <c r="B164" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C164" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="D164" s="1">
         <v>0.97299999999999998</v>
@@ -6142,10 +6240,10 @@
         <v>10</v>
       </c>
       <c r="F164" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H164" s="1" t="s">
         <v>14</v>
@@ -6156,22 +6254,22 @@
         <v>10067</v>
       </c>
       <c r="B165" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C165" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="D165" s="1">
         <v>10.393000000000001</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F165" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H165" s="1" t="s">
         <v>14</v>
@@ -6182,10 +6280,10 @@
         <v>10074</v>
       </c>
       <c r="B166" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C166" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="D166" s="1">
         <v>2.8000000000000001E-2</v>
@@ -6194,10 +6292,10 @@
         <v>106</v>
       </c>
       <c r="F166" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>14</v>
@@ -6208,22 +6306,22 @@
         <v>10080</v>
       </c>
       <c r="B167" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C167" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="D167" s="1">
         <v>0.14299999999999999</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F167" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H167" s="1" t="s">
         <v>14</v>
@@ -6234,10 +6332,10 @@
         <v>10081</v>
       </c>
       <c r="B168" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C168" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="D168" s="1">
         <v>0.14299999999999999</v>
@@ -6246,10 +6344,10 @@
         <v>105</v>
       </c>
       <c r="F168" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H168" s="1" t="s">
         <v>14</v>
@@ -6260,22 +6358,22 @@
         <v>10019</v>
       </c>
       <c r="B169" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C169" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="D169" s="1">
         <v>40.658999999999999</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>107</v>
+        <v>355</v>
       </c>
       <c r="F169" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H169" s="1" t="s">
         <v>14</v>
@@ -6286,22 +6384,22 @@
         <v>10054</v>
       </c>
       <c r="B170" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="D170" s="1">
         <v>2.548</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>107</v>
+        <v>355</v>
       </c>
       <c r="F170" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H170" s="1" t="s">
         <v>14</v>
@@ -6312,10 +6410,10 @@
         <v>10057</v>
       </c>
       <c r="B171" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C171" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="D171" s="1">
         <v>29.385000000000002</v>
@@ -6324,10 +6422,10 @@
         <v>8</v>
       </c>
       <c r="F171" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H171" s="1" t="s">
         <v>14</v>
@@ -6338,22 +6436,22 @@
         <v>10072</v>
       </c>
       <c r="B172" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C172" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="D172" s="1">
         <v>1.2849999999999999</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F172" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H172" s="1" t="s">
         <v>14</v>
@@ -6373,13 +6471,13 @@
         <v>9.9499999999999993</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F173" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H173" s="1" t="s">
         <v>14</v>
@@ -6399,13 +6497,13 @@
         <v>5.0209999999999999</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F174" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H174" s="1" t="s">
         <v>14</v>
@@ -6416,22 +6514,22 @@
         <v>10043</v>
       </c>
       <c r="B175" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C175" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="D175" s="1">
         <v>0.38900000000000001</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F175" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H175" s="1" t="s">
         <v>14</v>
@@ -6442,10 +6540,10 @@
         <v>10059</v>
       </c>
       <c r="B176" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C176" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="D176" s="1">
         <v>2.2269999999999999</v>
@@ -6454,10 +6552,10 @@
         <v>106</v>
       </c>
       <c r="F176" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H176" s="1" t="s">
         <v>14</v>
@@ -6468,22 +6566,22 @@
         <v>10070</v>
       </c>
       <c r="B177" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C177" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="D177" s="1">
         <v>0.46899999999999997</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F177" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H177" s="1" t="s">
         <v>14</v>
@@ -6494,22 +6592,22 @@
         <v>10071</v>
       </c>
       <c r="B178" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C178" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="D178" s="1">
         <v>0.53400000000000003</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F178" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H178" s="1" t="s">
         <v>14</v>
@@ -6520,22 +6618,22 @@
         <v>10042</v>
       </c>
       <c r="B179" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C179" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="D179" s="1">
         <v>67.941999999999993</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>107</v>
+        <v>355</v>
       </c>
       <c r="F179" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H179" s="1" t="s">
         <v>14</v>
@@ -6546,10 +6644,10 @@
         <v>10057</v>
       </c>
       <c r="B180" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C180" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="D180" s="1">
         <v>3.2269999999999999</v>
@@ -6558,10 +6656,10 @@
         <v>8</v>
       </c>
       <c r="F180" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H180" s="1" t="s">
         <v>14</v>
@@ -6572,22 +6670,22 @@
         <v>10069</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D181" s="1">
         <v>8.7010000000000005</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F181" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H181" s="1" t="s">
         <v>14</v>
@@ -6607,13 +6705,13 @@
         <v>8.8800000000000008</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F182" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H182" s="1" t="s">
         <v>14</v>
@@ -6633,13 +6731,13 @@
         <v>3.968</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F183" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H183" s="1" t="s">
         <v>14</v>
@@ -6659,13 +6757,13 @@
         <v>0.48499999999999999</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F184" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H184" s="1" t="s">
         <v>14</v>
@@ -6676,22 +6774,22 @@
         <v>10056</v>
       </c>
       <c r="B185" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C185" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="D185" s="1">
         <v>58.895000000000003</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F185" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H185" s="1" t="s">
         <v>14</v>
@@ -6702,10 +6800,10 @@
         <v>10059</v>
       </c>
       <c r="B186" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C186" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="D186" s="1">
         <v>12.593999999999999</v>
@@ -6714,10 +6812,10 @@
         <v>106</v>
       </c>
       <c r="F186" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H186" s="1" t="s">
         <v>14</v>
@@ -6728,22 +6826,22 @@
         <v>10067</v>
       </c>
       <c r="B187" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C187" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="D187" s="1">
         <v>4.63</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F187" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H187" s="1" t="s">
         <v>14</v>
@@ -6754,22 +6852,22 @@
         <v>10082</v>
       </c>
       <c r="B188" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C188" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="D188" s="1">
         <v>0.434</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F188" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H188" s="1" t="s">
         <v>14</v>
@@ -6780,22 +6878,22 @@
         <v>10084</v>
       </c>
       <c r="B189" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C189" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="D189" s="1">
         <v>0.193</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F189" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H189" s="1" t="s">
         <v>14</v>
@@ -6815,13 +6913,13 @@
         <v>7.3230000000000004</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F190" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H190" s="1" t="s">
         <v>14</v>
@@ -6844,10 +6942,10 @@
         <v>105</v>
       </c>
       <c r="F191" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H191" s="1" t="s">
         <v>14</v>
@@ -6867,13 +6965,13 @@
         <v>18.096</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F192" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H192" s="1" t="s">
         <v>14</v>
@@ -6893,13 +6991,13 @@
         <v>11.73</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F193" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H193" s="1" t="s">
         <v>14</v>
@@ -6910,10 +7008,10 @@
         <v>10060</v>
       </c>
       <c r="B194" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C194" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="D194" s="1">
         <v>9.4030000000000005</v>
@@ -6922,10 +7020,10 @@
         <v>10</v>
       </c>
       <c r="F194" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H194" s="1" t="s">
         <v>14</v>
@@ -6936,22 +7034,22 @@
         <v>10080</v>
       </c>
       <c r="B195" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C195" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="D195" s="1">
         <v>1.1339999999999999</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F195" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H195" s="1" t="s">
         <v>14</v>
@@ -6962,10 +7060,10 @@
         <v>10081</v>
       </c>
       <c r="B196" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C196" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="D196" s="1">
         <v>1.341</v>
@@ -6974,10 +7072,10 @@
         <v>105</v>
       </c>
       <c r="F196" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H196" s="1" t="s">
         <v>14</v>
@@ -6988,22 +7086,22 @@
         <v>10023</v>
       </c>
       <c r="B197" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C197" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="D197" s="1">
         <v>3.8620000000000001</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F197" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H197" s="1" t="s">
         <v>14</v>
@@ -7014,10 +7112,10 @@
         <v>10076</v>
       </c>
       <c r="B198" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C198" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="D198" s="1">
         <v>25.478999999999999</v>
@@ -7026,10 +7124,10 @@
         <v>8</v>
       </c>
       <c r="F198" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H198" s="1" t="s">
         <v>14</v>
@@ -7040,22 +7138,22 @@
         <v>10003</v>
       </c>
       <c r="B199" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C199" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="D199" s="1">
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>107</v>
+        <v>355</v>
       </c>
       <c r="F199" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H199" s="1" t="s">
         <v>14</v>
@@ -7066,10 +7164,10 @@
         <v>10031</v>
       </c>
       <c r="B200" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C200" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="D200" s="1">
         <v>8.4990000000000006</v>
@@ -7078,10 +7176,10 @@
         <v>106</v>
       </c>
       <c r="F200" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H200" s="1" t="s">
         <v>14</v>
@@ -7092,10 +7190,10 @@
         <v>10068</v>
       </c>
       <c r="B201" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C201" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="D201" s="1">
         <v>0.77900000000000003</v>
@@ -7104,10 +7202,10 @@
         <v>8</v>
       </c>
       <c r="F201" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H201" s="1" t="s">
         <v>14</v>
@@ -7118,10 +7216,10 @@
         <v>10033</v>
       </c>
       <c r="B202" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C202" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="D202" s="1">
         <v>0.41299999999999998</v>
@@ -7130,10 +7228,10 @@
         <v>106</v>
       </c>
       <c r="F202" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H202" s="1" t="s">
         <v>14</v>
@@ -7144,22 +7242,22 @@
         <v>10042</v>
       </c>
       <c r="B203" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C203" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="D203" s="1">
         <v>27.385999999999999</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>107</v>
+        <v>355</v>
       </c>
       <c r="F203" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H203" s="1" t="s">
         <v>14</v>
@@ -7170,22 +7268,22 @@
         <v>10056</v>
       </c>
       <c r="B204" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C204" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="D204" s="1">
         <v>31.437000000000001</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F204" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H204" s="1" t="s">
         <v>14</v>
@@ -7196,10 +7294,10 @@
         <v>10059</v>
       </c>
       <c r="B205" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C205" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="D205" s="1">
         <v>31.164000000000001</v>
@@ -7208,10 +7306,10 @@
         <v>106</v>
       </c>
       <c r="F205" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H205" s="1" t="s">
         <v>14</v>
@@ -7222,22 +7320,22 @@
         <v>10067</v>
       </c>
       <c r="B206" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C206" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="D206" s="1">
         <v>9.6519999999999992</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F206" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H206" s="1" t="s">
         <v>14</v>
@@ -7248,10 +7346,10 @@
         <v>10068</v>
       </c>
       <c r="B207" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C207" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="D207" s="1">
         <v>70.822999999999993</v>
@@ -7260,10 +7358,10 @@
         <v>8</v>
       </c>
       <c r="F207" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H207" s="1" t="s">
         <v>14</v>
@@ -7274,22 +7372,22 @@
         <v>10069</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D208" s="1">
         <v>11.951000000000001</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F208" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H208" s="1" t="s">
         <v>14</v>
@@ -7300,22 +7398,22 @@
         <v>10092</v>
       </c>
       <c r="B209" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C209" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="D209" s="1">
         <v>5.4630000000000001</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F209" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H209" s="1" t="s">
         <v>14</v>
@@ -7326,10 +7424,10 @@
         <v>10094</v>
       </c>
       <c r="B210" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C210" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="D210" s="1">
         <v>8.2460000000000004</v>
@@ -7338,10 +7436,10 @@
         <v>10</v>
       </c>
       <c r="F210" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H210" s="1" t="s">
         <v>14</v>
@@ -7361,13 +7459,13 @@
         <v>12.907</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F211" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H211" s="1" t="s">
         <v>14</v>
@@ -7390,10 +7488,10 @@
         <v>105</v>
       </c>
       <c r="F212" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H212" s="1" t="s">
         <v>14</v>
@@ -7413,13 +7511,13 @@
         <v>28.975999999999999</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F213" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H213" s="1" t="s">
         <v>14</v>
@@ -7439,13 +7537,13 @@
         <v>10.57</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F214" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H214" s="1" t="s">
         <v>14</v>
@@ -7456,22 +7554,22 @@
         <v>10093</v>
       </c>
       <c r="B215" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C215" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="D215" s="1">
         <v>2.6680000000000001</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F215" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H215" s="1" t="s">
         <v>14</v>
@@ -7482,10 +7580,10 @@
         <v>10099</v>
       </c>
       <c r="B216" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C216" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="D216" s="1">
         <v>4.9000000000000004</v>
@@ -7494,10 +7592,10 @@
         <v>105</v>
       </c>
       <c r="F216" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H216" s="1" t="s">
         <v>14</v>
@@ -7508,22 +7606,22 @@
         <v>10106</v>
       </c>
       <c r="B217" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C217" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="D217" s="1">
         <v>5.1440000000000001</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F217" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H217" s="1" t="s">
         <v>14</v>
@@ -7543,13 +7641,13 @@
         <v>14.464</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F218" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H218" s="1" t="s">
         <v>14</v>
@@ -7560,22 +7658,22 @@
         <v>10023</v>
       </c>
       <c r="B219" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C219" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="D219" s="1">
         <v>3.081</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F219" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H219" s="1" t="s">
         <v>14</v>
@@ -7586,22 +7684,22 @@
         <v>10096</v>
       </c>
       <c r="B220" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C220" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="D220" s="1">
         <v>2.9990000000000001</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F220" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H220" s="1" t="s">
         <v>29</v>
@@ -7621,13 +7719,13 @@
         <v>5.625</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F221" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H221" s="1" t="s">
         <v>14</v>
@@ -7638,10 +7736,10 @@
         <v>10076</v>
       </c>
       <c r="B222" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C222" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="D222" s="1">
         <v>4.5999999999999999E-2</v>
@@ -7650,10 +7748,10 @@
         <v>8</v>
       </c>
       <c r="F222" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H222" s="1" t="s">
         <v>14</v>
@@ -7664,22 +7762,22 @@
         <v>10097</v>
       </c>
       <c r="B223" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C223" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="D223" s="1">
         <v>0.84299999999999997</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F223" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H223" s="1" t="s">
         <v>14</v>
@@ -7690,22 +7788,22 @@
         <v>10098</v>
       </c>
       <c r="B224" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C224" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>221</v>
       </c>
       <c r="D224" s="1">
         <v>0.98399999999999999</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F224" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H224" s="1" t="s">
         <v>14</v>
@@ -7716,22 +7814,22 @@
         <v>9367</v>
       </c>
       <c r="B225" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C225" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="D225" s="1">
         <v>1.02</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F225" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H225" s="1" t="s">
         <v>14</v>
@@ -7742,22 +7840,22 @@
         <v>10042</v>
       </c>
       <c r="B226" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C226" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="D226" s="1">
         <v>29.285</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>107</v>
+        <v>355</v>
       </c>
       <c r="F226" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H226" s="1" t="s">
         <v>14</v>
@@ -7768,22 +7866,22 @@
         <v>10054</v>
       </c>
       <c r="B227" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C227" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="D227" s="1">
         <v>19.824000000000002</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>107</v>
+        <v>355</v>
       </c>
       <c r="F227" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H227" s="1" t="s">
         <v>14</v>
@@ -7794,22 +7892,22 @@
         <v>10056</v>
       </c>
       <c r="B228" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C228" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="D228" s="1">
         <v>30.881</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F228" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H228" s="1" t="s">
         <v>14</v>
@@ -7820,10 +7918,10 @@
         <v>10068</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D229" s="1">
         <v>48.35</v>
@@ -7832,10 +7930,10 @@
         <v>8</v>
       </c>
       <c r="F229" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H229" s="1" t="s">
         <v>14</v>
@@ -7846,22 +7944,22 @@
         <v>10092</v>
       </c>
       <c r="B230" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C230" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="D230" s="1">
         <v>68.153000000000006</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F230" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H230" s="1" t="s">
         <v>14</v>
@@ -7881,13 +7979,13 @@
         <v>17.071000000000002</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F231" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H231" s="1" t="s">
         <v>14</v>
@@ -7901,19 +7999,19 @@
         <v>12</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D232" s="1">
         <v>12.819000000000001</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F232" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H232" s="1" t="s">
         <v>14</v>
@@ -7936,10 +8034,10 @@
         <v>105</v>
       </c>
       <c r="F233" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H233" s="1" t="s">
         <v>14</v>
@@ -7959,13 +8057,13 @@
         <v>6.9790000000000001</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F234" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H234" s="1" t="s">
         <v>14</v>
@@ -7976,10 +8074,10 @@
         <v>10059</v>
       </c>
       <c r="B235" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C235" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="D235" s="1">
         <v>21.18</v>
@@ -7988,10 +8086,10 @@
         <v>106</v>
       </c>
       <c r="F235" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G235" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H235" s="1" t="s">
         <v>14</v>
@@ -8002,10 +8100,10 @@
         <v>10108</v>
       </c>
       <c r="B236" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C236" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="D236" s="1">
         <v>9.9649999999999999</v>
@@ -8014,10 +8112,10 @@
         <v>10</v>
       </c>
       <c r="F236" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H236" s="1" t="s">
         <v>14</v>
@@ -8028,10 +8126,10 @@
         <v>10094</v>
       </c>
       <c r="B237" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C237" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="D237" s="1">
         <v>2.8260000000000001</v>
@@ -8040,10 +8138,10 @@
         <v>10</v>
       </c>
       <c r="F237" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H237" s="1" t="s">
         <v>14</v>
@@ -8054,10 +8152,10 @@
         <v>10111</v>
       </c>
       <c r="B238" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C238" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="D238" s="1">
         <v>10.175000000000001</v>
@@ -8066,10 +8164,10 @@
         <v>106</v>
       </c>
       <c r="F238" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G238" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H238" s="1" t="s">
         <v>14</v>
@@ -8089,13 +8187,13 @@
         <v>9.9990000000000006</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F239" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H239" s="1" t="s">
         <v>14</v>
@@ -8115,13 +8213,13 @@
         <v>6.4989999999999997</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F240" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H240" s="1" t="s">
         <v>14</v>
@@ -8132,22 +8230,22 @@
         <v>10103</v>
       </c>
       <c r="B241" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C241" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="D241" s="1">
         <v>8.0809999999999995</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F241" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H241" s="1" t="s">
         <v>2</v>
@@ -8158,10 +8256,10 @@
         <v>10110</v>
       </c>
       <c r="B242" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C242" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="D242" s="1">
         <v>2.605</v>
@@ -8170,10 +8268,10 @@
         <v>106</v>
       </c>
       <c r="F242" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H242" s="1" t="s">
         <v>14</v>
@@ -8184,22 +8282,22 @@
         <v>10109</v>
       </c>
       <c r="B243" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C243" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>234</v>
       </c>
       <c r="D243" s="1">
         <v>0.14000000000000001</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F243" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H243" s="1" t="s">
         <v>14</v>
@@ -8210,22 +8308,22 @@
         <v>10113</v>
       </c>
       <c r="B244" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C244" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="D244" s="1">
         <v>0.72499999999999998</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>107</v>
+        <v>355</v>
       </c>
       <c r="F244" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H244" s="1" t="s">
         <v>14</v>
@@ -8236,22 +8334,22 @@
         <v>10119</v>
       </c>
       <c r="B245" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C245" s="5" t="s">
         <v>237</v>
-      </c>
-      <c r="C245" s="5" t="s">
-        <v>238</v>
       </c>
       <c r="D245" s="5">
         <v>4</v>
       </c>
       <c r="E245" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F245" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H245" s="5" t="s">
         <v>14</v>
@@ -8262,22 +8360,22 @@
         <v>10054</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D246" s="5">
         <v>3.593</v>
       </c>
       <c r="E246" s="5" t="s">
-        <v>107</v>
+        <v>355</v>
       </c>
       <c r="F246" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H246" s="5" t="s">
         <v>14</v>
@@ -8288,22 +8386,22 @@
         <v>10056</v>
       </c>
       <c r="B247" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C247" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="C247" s="5" t="s">
-        <v>174</v>
       </c>
       <c r="D247" s="5">
         <v>51.633000000000003</v>
       </c>
       <c r="E247" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F247" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H247" s="5" t="s">
         <v>14</v>
@@ -8314,10 +8412,10 @@
         <v>10068</v>
       </c>
       <c r="B248" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C248" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="C248" s="5" t="s">
-        <v>205</v>
       </c>
       <c r="D248" s="5">
         <v>40.276000000000003</v>
@@ -8326,10 +8424,10 @@
         <v>8</v>
       </c>
       <c r="F248" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H248" s="5" t="s">
         <v>14</v>
@@ -8340,22 +8438,22 @@
         <v>10092</v>
       </c>
       <c r="B249" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C249" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="C249" s="5" t="s">
-        <v>207</v>
       </c>
       <c r="D249" s="5">
         <v>70.873999999999995</v>
       </c>
       <c r="E249" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F249" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H249" s="5" t="s">
         <v>14</v>
@@ -8366,22 +8464,22 @@
         <v>10113</v>
       </c>
       <c r="B250" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C250" s="5" t="s">
         <v>235</v>
-      </c>
-      <c r="C250" s="5" t="s">
-        <v>236</v>
       </c>
       <c r="D250" s="5">
         <v>43.456000000000003</v>
       </c>
       <c r="E250" s="5" t="s">
-        <v>107</v>
+        <v>355</v>
       </c>
       <c r="F250" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H250" s="5" t="s">
         <v>14</v>
@@ -8401,13 +8499,13 @@
         <v>9.7080000000000002</v>
       </c>
       <c r="E251" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F251" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H251" s="5" t="s">
         <v>14</v>
@@ -8430,10 +8528,10 @@
         <v>105</v>
       </c>
       <c r="F252" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H252" s="5" t="s">
         <v>14</v>
@@ -8453,13 +8551,13 @@
         <v>24.623999999999999</v>
       </c>
       <c r="E253" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F253" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H253" s="5" t="s">
         <v>14</v>
@@ -8479,13 +8577,13 @@
         <v>11.831</v>
       </c>
       <c r="E254" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F254" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H254" s="5" t="s">
         <v>14</v>
@@ -8496,22 +8594,22 @@
         <v>10112</v>
       </c>
       <c r="B255" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C255" s="5" t="s">
         <v>240</v>
-      </c>
-      <c r="C255" s="5" t="s">
-        <v>241</v>
       </c>
       <c r="D255" s="5">
         <v>5.0670000000000002</v>
       </c>
       <c r="E255" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F255" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H255" s="5" t="s">
         <v>14</v>
@@ -8522,10 +8620,10 @@
         <v>10108</v>
       </c>
       <c r="B256" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C256" s="5" t="s">
         <v>225</v>
-      </c>
-      <c r="C256" s="5" t="s">
-        <v>226</v>
       </c>
       <c r="D256" s="5">
         <v>0.55300000000000005</v>
@@ -8534,10 +8632,10 @@
         <v>10</v>
       </c>
       <c r="F256" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H256" s="5" t="s">
         <v>14</v>
@@ -8548,10 +8646,10 @@
         <v>10122</v>
       </c>
       <c r="B257" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C257" s="5" t="s">
         <v>242</v>
-      </c>
-      <c r="C257" s="5" t="s">
-        <v>243</v>
       </c>
       <c r="D257" s="5">
         <v>5.7140000000000004</v>
@@ -8560,10 +8658,10 @@
         <v>106</v>
       </c>
       <c r="F257" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H257" s="5" t="s">
         <v>14</v>
@@ -8574,10 +8672,10 @@
         <v>10123</v>
       </c>
       <c r="B258" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C258" s="5" t="s">
         <v>244</v>
-      </c>
-      <c r="C258" s="5" t="s">
-        <v>245</v>
       </c>
       <c r="D258" s="5">
         <v>1.601</v>
@@ -8586,10 +8684,10 @@
         <v>106</v>
       </c>
       <c r="F258" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H258" s="5" t="s">
         <v>14</v>
@@ -8609,13 +8707,13 @@
         <v>18.748000000000001</v>
       </c>
       <c r="E259" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F259" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H259" s="5" t="s">
         <v>14</v>
@@ -8626,10 +8724,10 @@
         <v>10111</v>
       </c>
       <c r="B260" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C260" s="5" t="s">
         <v>227</v>
-      </c>
-      <c r="C260" s="5" t="s">
-        <v>228</v>
       </c>
       <c r="D260" s="5">
         <v>30.34</v>
@@ -8638,10 +8736,10 @@
         <v>106</v>
       </c>
       <c r="F260" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H260" s="5" t="s">
         <v>14</v>
@@ -8661,13 +8759,13 @@
         <v>0.95199999999999996</v>
       </c>
       <c r="E261" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F261" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H261" s="5" t="s">
         <v>14</v>
@@ -8678,10 +8776,10 @@
         <v>10121</v>
       </c>
       <c r="B262" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C262" s="5" t="s">
         <v>246</v>
-      </c>
-      <c r="C262" s="5" t="s">
-        <v>247</v>
       </c>
       <c r="D262" s="5">
         <v>3.794</v>
@@ -8690,7 +8788,7 @@
         <v>10</v>
       </c>
       <c r="F262" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G262" s="2" t="s">
         <v>10</v>
@@ -8704,10 +8802,10 @@
         <v>10110</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D263" s="5">
         <v>5.6360000000000001</v>
@@ -8716,10 +8814,10 @@
         <v>106</v>
       </c>
       <c r="F263" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H263" s="5" t="s">
         <v>2</v>
@@ -8730,10 +8828,10 @@
         <v>10116</v>
       </c>
       <c r="B264" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C264" s="5" t="s">
         <v>249</v>
-      </c>
-      <c r="C264" s="5" t="s">
-        <v>250</v>
       </c>
       <c r="D264" s="5">
         <v>2.1339999999999999</v>
@@ -8742,10 +8840,10 @@
         <v>8</v>
       </c>
       <c r="F264" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H264" s="5" t="s">
         <v>14</v>
@@ -8756,10 +8854,10 @@
         <v>10117</v>
       </c>
       <c r="B265" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C265" s="5" t="s">
         <v>251</v>
-      </c>
-      <c r="C265" s="5" t="s">
-        <v>252</v>
       </c>
       <c r="D265" s="5">
         <v>3.8809999999999998</v>
@@ -8768,10 +8866,10 @@
         <v>10</v>
       </c>
       <c r="F265" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H265" s="5" t="s">
         <v>14</v>
@@ -8782,22 +8880,22 @@
         <v>10119</v>
       </c>
       <c r="B266" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C266" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="C266" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="D266" s="1">
         <v>10.191000000000001</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F266" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H266" s="1" t="s">
         <v>14</v>
@@ -8808,10 +8906,10 @@
         <v>10068</v>
       </c>
       <c r="B267" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C267" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="C267" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="D267" s="1">
         <v>26.838999999999999</v>
@@ -8820,10 +8918,10 @@
         <v>8</v>
       </c>
       <c r="F267" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H267" s="1" t="s">
         <v>14</v>
@@ -8834,22 +8932,22 @@
         <v>10113</v>
       </c>
       <c r="B268" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C268" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="D268" s="1">
         <v>19.37</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>107</v>
+        <v>355</v>
       </c>
       <c r="F268" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H268" s="1" t="s">
         <v>14</v>
@@ -8860,22 +8958,22 @@
         <v>10114</v>
       </c>
       <c r="B269" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C269" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="C269" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="D269" s="1">
         <v>40.31</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>107</v>
+        <v>355</v>
       </c>
       <c r="F269" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H269" s="1" t="s">
         <v>14</v>
@@ -8886,10 +8984,10 @@
         <v>10122</v>
       </c>
       <c r="B270" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C270" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="C270" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="D270" s="1">
         <v>25.972000000000001</v>
@@ -8898,10 +8996,10 @@
         <v>106</v>
       </c>
       <c r="F270" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H270" s="1" t="s">
         <v>14</v>
@@ -8921,13 +9019,13 @@
         <v>12.052</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F271" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H271" s="1" t="s">
         <v>14</v>
@@ -8950,10 +9048,10 @@
         <v>105</v>
       </c>
       <c r="F272" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H272" s="1" t="s">
         <v>14</v>
@@ -8964,22 +9062,22 @@
         <v>10092</v>
       </c>
       <c r="B273" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C273" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="C273" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="D273" s="1">
         <v>62.7</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F273" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H273" s="1" t="s">
         <v>14</v>
@@ -8990,22 +9088,22 @@
         <v>10101</v>
       </c>
       <c r="B274" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C274" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="C274" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="D274" s="1">
         <v>28.814</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F274" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H274" s="1" t="s">
         <v>14</v>
@@ -9025,13 +9123,13 @@
         <v>5.9909999999999997</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F275" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G275" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H275" s="1" t="s">
         <v>14</v>
@@ -9051,13 +9149,13 @@
         <v>12.821999999999999</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F276" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H276" s="1" t="s">
         <v>14</v>
@@ -9077,13 +9175,13 @@
         <v>8.4209999999999994</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F277" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G277" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H277" s="1" t="s">
         <v>14</v>
@@ -9094,22 +9192,22 @@
         <v>10056</v>
       </c>
       <c r="B278" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C278" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="C278" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="D278" s="1">
         <v>14.335000000000001</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F278" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G278" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H278" s="1" t="s">
         <v>14</v>
@@ -9120,10 +9218,10 @@
         <v>10118</v>
       </c>
       <c r="B279" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C279" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="C279" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="D279" s="1">
         <v>2.9950000000000001</v>
@@ -9132,10 +9230,10 @@
         <v>105</v>
       </c>
       <c r="F279" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H279" s="1" t="s">
         <v>14</v>
@@ -9146,10 +9244,10 @@
         <v>10123</v>
       </c>
       <c r="B280" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C280" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="D280" s="1">
         <v>1.8340000000000001</v>
@@ -9158,10 +9256,10 @@
         <v>105</v>
       </c>
       <c r="F280" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H280" s="1" t="s">
         <v>14</v>
@@ -9172,10 +9270,10 @@
         <v>10121</v>
       </c>
       <c r="B281" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C281" s="1" t="s">
         <v>246</v>
-      </c>
-      <c r="C281" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="D281" s="1">
         <v>7.4210000000000003</v>
@@ -9184,10 +9282,10 @@
         <v>10</v>
       </c>
       <c r="F281" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H281" s="1" t="s">
         <v>14</v>
@@ -9198,22 +9296,22 @@
         <v>10112</v>
       </c>
       <c r="B282" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C282" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="C282" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="D282" s="1">
         <v>3.8180000000000001</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F282" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H282" s="1" t="s">
         <v>14</v>
@@ -9233,13 +9331,13 @@
         <v>1.351</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F283" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H283" s="1" t="s">
         <v>14</v>
@@ -9250,22 +9348,22 @@
         <v>10026</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D284" s="1">
         <v>5.1680000000000001</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F284" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H284" s="1" t="s">
         <v>2</v>
@@ -9276,10 +9374,10 @@
         <v>10068</v>
       </c>
       <c r="B285" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C285" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="D285" s="1">
         <v>47.554000000000002</v>
@@ -9288,10 +9386,10 @@
         <v>8</v>
       </c>
       <c r="F285" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H285" s="1" t="s">
         <v>14</v>
@@ -9302,22 +9400,22 @@
         <v>10092</v>
       </c>
       <c r="B286" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C286" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="C286" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="D286" s="1">
         <v>50.348999999999997</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F286" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H286" s="1" t="s">
         <v>14</v>
@@ -9328,22 +9426,22 @@
         <v>10101</v>
       </c>
       <c r="B287" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C287" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="D287" s="1">
         <v>34.139000000000003</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F287" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H287" s="1" t="s">
         <v>14</v>
@@ -9354,22 +9452,22 @@
         <v>10112</v>
       </c>
       <c r="B288" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C288" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="C288" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="D288" s="1">
         <v>36.198999999999998</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F288" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H288" s="1" t="s">
         <v>14</v>
@@ -9380,22 +9478,22 @@
         <v>10114</v>
       </c>
       <c r="B289" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C289" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="C289" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="D289" s="1">
         <v>43.725000000000001</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>107</v>
+        <v>355</v>
       </c>
       <c r="F289" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H289" s="1" t="s">
         <v>14</v>
@@ -9415,13 +9513,13 @@
         <v>18.347999999999999</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F290" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H290" s="1" t="s">
         <v>14</v>
@@ -9432,10 +9530,10 @@
         <v>10118</v>
       </c>
       <c r="B291" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C291" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="C291" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="D291" s="1">
         <v>18.134</v>
@@ -9444,10 +9542,10 @@
         <v>106</v>
       </c>
       <c r="F291" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H291" s="1" t="s">
         <v>14</v>
@@ -9458,10 +9556,10 @@
         <v>10134</v>
       </c>
       <c r="B292" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C292" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="C292" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="D292" s="1">
         <v>5.21</v>
@@ -9470,10 +9568,10 @@
         <v>106</v>
       </c>
       <c r="F292" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H292" s="1" t="s">
         <v>14</v>
@@ -9493,13 +9591,13 @@
         <v>16.027999999999999</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F293" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H293" s="1" t="s">
         <v>14</v>
@@ -9522,10 +9620,10 @@
         <v>105</v>
       </c>
       <c r="F294" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H294" s="1" t="s">
         <v>14</v>
@@ -9545,13 +9643,13 @@
         <v>5.5460000000000003</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F295" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H295" s="1" t="s">
         <v>14</v>
@@ -9562,10 +9660,10 @@
         <v>10122</v>
       </c>
       <c r="B296" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C296" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="C296" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="D296" s="1">
         <v>7.8529999999999998</v>
@@ -9574,10 +9672,10 @@
         <v>106</v>
       </c>
       <c r="F296" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H296" s="1" t="s">
         <v>14</v>
@@ -9588,22 +9686,22 @@
         <v>10127</v>
       </c>
       <c r="B297" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C297" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="C297" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="D297" s="1">
         <v>2.5</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F297" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H297" s="1" t="s">
         <v>14</v>
@@ -9614,10 +9712,10 @@
         <v>10116</v>
       </c>
       <c r="B298" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C298" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="C298" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="D298" s="1">
         <v>5.5730000000000004</v>
@@ -9626,10 +9724,10 @@
         <v>8</v>
       </c>
       <c r="F298" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H298" s="1" t="s">
         <v>14</v>
@@ -9640,22 +9738,22 @@
         <v>10132</v>
       </c>
       <c r="B299" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C299" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="C299" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="D299" s="1">
         <v>3.9990000000000001</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F299" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H299" s="1" t="s">
         <v>2</v>
@@ -9666,22 +9764,22 @@
         <v>10128</v>
       </c>
       <c r="B300" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C300" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="C300" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="D300" s="1">
         <v>0.308</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F300" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H300" s="1" t="s">
         <v>14</v>
@@ -9692,22 +9790,22 @@
         <v>10119</v>
       </c>
       <c r="B301" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C301" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="C301" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="D301" s="1">
         <v>4.0250000000000004</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F301" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H301" s="1" t="s">
         <v>2</v>
@@ -9727,13 +9825,13 @@
         <v>17.54</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F302" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H302" s="1" t="s">
         <v>14</v>
@@ -9753,13 +9851,13 @@
         <v>0.34</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F303" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H303" s="1" t="s">
         <v>14</v>
@@ -9770,22 +9868,22 @@
         <v>10128</v>
       </c>
       <c r="B304" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C304" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="C304" s="1" t="s">
-        <v>267</v>
       </c>
       <c r="D304" s="1">
         <v>38.875999999999998</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F304" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H304" s="1" t="s">
         <v>14</v>
@@ -9796,10 +9894,10 @@
         <v>10134</v>
       </c>
       <c r="B305" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C305" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="C305" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="D305" s="1">
         <v>21.25</v>
@@ -9808,10 +9906,10 @@
         <v>106</v>
       </c>
       <c r="F305" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H305" s="1" t="s">
         <v>14</v>
@@ -9822,10 +9920,10 @@
         <v>10135</v>
       </c>
       <c r="B306" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C306" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="C306" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="D306" s="1">
         <v>19.696000000000002</v>
@@ -9834,10 +9932,10 @@
         <v>106</v>
       </c>
       <c r="F306" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G306" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H306" s="1" t="s">
         <v>14</v>
@@ -9848,10 +9946,10 @@
         <v>10138</v>
       </c>
       <c r="B307" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C307" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="C307" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="D307" s="1">
         <v>2.5619999999999998</v>
@@ -9860,10 +9958,10 @@
         <v>106</v>
       </c>
       <c r="F307" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H307" s="1" t="s">
         <v>14</v>
@@ -9874,22 +9972,22 @@
         <v>10139</v>
       </c>
       <c r="B308" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C308" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="C308" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="D308" s="1">
         <v>14.464</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>107</v>
+        <v>355</v>
       </c>
       <c r="F308" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G308" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H308" s="1" t="s">
         <v>14</v>
@@ -9909,13 +10007,13 @@
         <v>15.962</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F309" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G309" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H309" s="1" t="s">
         <v>14</v>
@@ -9938,10 +10036,10 @@
         <v>105</v>
       </c>
       <c r="F310" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H310" s="1" t="s">
         <v>14</v>
@@ -9952,22 +10050,22 @@
         <v>10101</v>
       </c>
       <c r="B311" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C311" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="C311" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="D311" s="1">
         <v>24.7</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F311" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H311" s="1" t="s">
         <v>14</v>
@@ -9978,22 +10076,22 @@
         <v>10114</v>
       </c>
       <c r="B312" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C312" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="C312" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="D312" s="1">
         <v>43.155999999999999</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>107</v>
+        <v>355</v>
       </c>
       <c r="F312" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G312" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H312" s="1" t="s">
         <v>14</v>
@@ -10004,10 +10102,10 @@
         <v>10116</v>
       </c>
       <c r="B313" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C313" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="C313" s="1" t="s">
-        <v>250</v>
       </c>
       <c r="D313" s="1">
         <v>49.664000000000001</v>
@@ -10016,10 +10114,10 @@
         <v>8</v>
       </c>
       <c r="F313" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H313" s="1" t="s">
         <v>14</v>
@@ -10030,22 +10128,22 @@
         <v>10129</v>
       </c>
       <c r="B314" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C314" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="C314" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="D314" s="1">
         <v>13.531000000000001</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F314" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H314" s="1" t="s">
         <v>14</v>
@@ -10056,22 +10154,22 @@
         <v>10133</v>
       </c>
       <c r="B315" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C315" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="C315" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="D315" s="1">
         <v>7.4119999999999999</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F315" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G315" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H315" s="1" t="s">
         <v>14</v>
@@ -10082,22 +10180,22 @@
         <v>10092</v>
       </c>
       <c r="B316" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C316" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="C316" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="D316" s="1">
         <v>32.585999999999999</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F316" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G316" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H316" s="1" t="s">
         <v>14</v>
@@ -10108,22 +10206,22 @@
         <v>10137</v>
       </c>
       <c r="B317" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C317" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="C317" s="1" t="s">
-        <v>279</v>
       </c>
       <c r="D317" s="1">
         <v>14.272</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F317" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G317" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H317" s="1" t="s">
         <v>14</v>
@@ -10143,13 +10241,13 @@
         <v>8.8670000000000009</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F318" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H318" s="1" t="s">
         <v>14</v>
@@ -10169,13 +10267,13 @@
         <v>24.873000000000001</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F319" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G319" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H319" s="1" t="s">
         <v>14</v>
@@ -10195,13 +10293,13 @@
         <v>1.633</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F320" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H320" s="1" t="s">
         <v>14</v>
@@ -10221,13 +10319,13 @@
         <v>9.8119999999999994</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F321" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G321" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H321" s="1" t="s">
         <v>14</v>
@@ -10238,22 +10336,22 @@
         <v>10112</v>
       </c>
       <c r="B322" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C322" s="1" t="s">
         <v>240</v>
-      </c>
-      <c r="C322" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="D322" s="1">
         <v>4.9800000000000004</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F322" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H322" s="1" t="s">
         <v>14</v>
@@ -10261,25 +10359,25 @@
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D323" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B323" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C323" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D323" s="1" t="s">
-        <v>307</v>
-      </c>
       <c r="E323" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F323" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="G323" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="G323" s="1" t="s">
-        <v>355</v>
       </c>
       <c r="H323" s="1" t="s">
         <v>14</v>
@@ -10287,25 +10385,25 @@
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D324" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B324" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C324" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D324" s="1" t="s">
-        <v>309</v>
-      </c>
       <c r="E324" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F324" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G324" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H324" s="1" t="s">
         <v>14</v>
@@ -10313,25 +10411,25 @@
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D325" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="B325" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C325" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D325" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>106</v>
       </c>
       <c r="F325" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G325" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H325" s="1" t="s">
         <v>14</v>
@@ -10339,25 +10437,25 @@
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D326" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="B326" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C326" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D326" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="E326" s="1" t="s">
         <v>106</v>
       </c>
       <c r="F326" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G326" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H326" s="1" t="s">
         <v>14</v>
@@ -10365,25 +10463,25 @@
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D327" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B327" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C327" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D327" s="1" t="s">
-        <v>315</v>
-      </c>
       <c r="E327" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F327" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G327" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H327" s="1" t="s">
         <v>14</v>
@@ -10391,7 +10489,7 @@
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>30</v>
@@ -10400,16 +10498,16 @@
         <v>31</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F328" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G328" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H328" s="1" t="s">
         <v>14</v>
@@ -10417,7 +10515,7 @@
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B329" s="1" t="s">
         <v>0</v>
@@ -10426,16 +10524,16 @@
         <v>1</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E329" s="1" t="s">
         <v>105</v>
       </c>
       <c r="F329" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G329" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H329" s="1" t="s">
         <v>14</v>
@@ -10443,7 +10541,7 @@
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B330" s="1" t="s">
         <v>21</v>
@@ -10452,16 +10550,16 @@
         <v>22</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F330" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G330" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H330" s="1" t="s">
         <v>14</v>
@@ -10469,7 +10567,7 @@
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>32</v>
@@ -10478,16 +10576,16 @@
         <v>33</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F331" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G331" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H331" s="1" t="s">
         <v>14</v>
@@ -10495,25 +10593,25 @@
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B332" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B332" s="1" t="s">
+      <c r="C332" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C332" s="1" t="s">
+      <c r="D332" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="D332" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="E332" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F332" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G332" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H332" s="1" t="s">
         <v>14</v>
@@ -10521,25 +10619,25 @@
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D333" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="B333" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C333" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D333" s="1" t="s">
-        <v>329</v>
       </c>
       <c r="E333" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F333" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G333" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H333" s="1" t="s">
         <v>14</v>
@@ -10547,25 +10645,25 @@
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D334" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B334" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C334" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D334" s="1" t="s">
-        <v>331</v>
-      </c>
       <c r="E334" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F334" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G334" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H334" s="1" t="s">
         <v>14</v>
@@ -10573,25 +10671,25 @@
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D335" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B335" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C335" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D335" s="1" t="s">
-        <v>333</v>
-      </c>
       <c r="E335" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F335" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G335" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H335" s="1" t="s">
         <v>14</v>
@@ -10599,7 +10697,7 @@
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>12</v>
@@ -10608,16 +10706,16 @@
         <v>13</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F336" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G336" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H336" s="1" t="s">
         <v>14</v>
@@ -10625,7 +10723,7 @@
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>11</v>
@@ -10634,16 +10732,16 @@
         <v>35</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F337" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G337" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H337" s="1" t="s">
         <v>14</v>
@@ -10651,7 +10749,7 @@
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B338" s="1" t="s">
         <v>27</v>
@@ -10660,16 +10758,16 @@
         <v>28</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F338" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G338" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H338" s="1" t="s">
         <v>14</v>
@@ -10677,25 +10775,25 @@
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B339" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B339" s="1" t="s">
+      <c r="C339" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C339" s="1" t="s">
+      <c r="D339" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D339" s="1" t="s">
-        <v>343</v>
-      </c>
       <c r="E339" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F339" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G339" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H339" s="1" t="s">
         <v>14</v>
@@ -10703,25 +10801,25 @@
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B340" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B340" s="1" t="s">
+      <c r="C340" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="C340" s="1" t="s">
+      <c r="D340" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="D340" s="1" t="s">
-        <v>347</v>
-      </c>
       <c r="E340" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F340" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G340" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H340" s="1" t="s">
         <v>14</v>
@@ -10729,25 +10827,25 @@
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B341" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B341" s="1" t="s">
+      <c r="C341" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C341" s="1" t="s">
+      <c r="D341" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D341" s="1" t="s">
-        <v>351</v>
-      </c>
       <c r="E341" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F341" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G341" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H341" s="1" t="s">
         <v>29</v>
@@ -10755,29 +10853,449 @@
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D342" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B342" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C342" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D342" s="1" t="s">
+      <c r="E342" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F342" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="E342" s="1" t="s">
+      <c r="G342" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="H342" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A343" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D343" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="F342" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="G342" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="H342" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="E343" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F343" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="G343" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="H343" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A344" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E344" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F344" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="G344" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="H344" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A345" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F345" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="G345" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H345" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A346" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E346" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="F346" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="G346" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="H346" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A347" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E347" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F347" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="G347" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="H347" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A348" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E348" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F348" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="G348" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="H348" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A349" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="E349" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F349" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="G349" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="H349" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A350" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E350" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F350" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="G350" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="H350" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A351" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="E351" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F351" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="G351" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H351" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A352" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E352" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F352" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="G352" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H352" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A353" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E353" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F353" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="G353" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H353" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A354" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="E354" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F354" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="G354" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="H354" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A355" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="E355" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F355" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="G355" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H355" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A356" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D356" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E356" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F356" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="G356" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H356" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A357" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E357" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F357" s="20" t="s">
+        <v>377</v>
+      </c>
+      <c r="G357" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H357" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A358" s="1"/>
+      <c r="B358" s="16"/>
+      <c r="C358" s="16"/>
+      <c r="D358" s="13"/>
+      <c r="E358" s="1"/>
+      <c r="F358" s="14"/>
+      <c r="G358" s="2"/>
+      <c r="H358" s="16"/>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A359" s="1"/>
+      <c r="B359" s="16"/>
+      <c r="C359" s="16"/>
+      <c r="D359" s="13"/>
+      <c r="E359" s="1"/>
+      <c r="F359" s="14"/>
+      <c r="G359" s="2"/>
+      <c r="H359" s="16"/>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A360" s="15"/>
+      <c r="B360" s="16"/>
+      <c r="C360" s="16"/>
+      <c r="D360" s="17"/>
+      <c r="E360" s="15"/>
+      <c r="F360" s="18"/>
+      <c r="G360" s="19"/>
+      <c r="H360" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel-data/excel-files/Cost Allocation.xlsx
+++ b/excel-data/excel-files/Cost Allocation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10720"/>
   <workbookPr date1904="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nealasmothers/Downloads/logisticsdashboard/excel-data/excel-files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BECA04D-118E-2B42-8536-0B5B48F2DEF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B002705-2D2C-7144-B2E7-C304B5609462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="920" windowWidth="34240" windowHeight="21260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2214" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="321">
   <si>
     <t>16THR0101M</t>
   </si>
@@ -937,150 +937,30 @@
     <t>04-25</t>
   </si>
   <si>
-    <t>10101</t>
-  </si>
-  <si>
-    <t>25.874</t>
-  </si>
-  <si>
-    <t>10133</t>
-  </si>
-  <si>
-    <t>65.502</t>
-  </si>
-  <si>
-    <t>10134</t>
-  </si>
-  <si>
-    <t>.251</t>
-  </si>
-  <si>
-    <t>10138</t>
-  </si>
-  <si>
-    <t>7.736</t>
-  </si>
-  <si>
-    <t>10139</t>
-  </si>
-  <si>
-    <t>40.106</t>
-  </si>
-  <si>
-    <t>9359</t>
-  </si>
-  <si>
-    <t>15.458</t>
-  </si>
-  <si>
-    <t>9360</t>
-  </si>
-  <si>
-    <t>22.469</t>
-  </si>
-  <si>
-    <t>9361</t>
-  </si>
-  <si>
-    <t>18.072</t>
-  </si>
-  <si>
-    <t>9364</t>
-  </si>
-  <si>
-    <t>1.249</t>
-  </si>
-  <si>
-    <t>10115</t>
-  </si>
-  <si>
     <t>H-S1E00EXP98-EX-D1</t>
   </si>
   <si>
     <t>Ocean Blackhornet / Penguin Exploration Well Long Leads:Penguin Long Leads materials/inventory</t>
   </si>
   <si>
-    <t>.257</t>
-  </si>
-  <si>
-    <t>10116</t>
-  </si>
-  <si>
-    <t>57.445</t>
-  </si>
-  <si>
-    <t>10137</t>
-  </si>
-  <si>
-    <t>36.703</t>
-  </si>
-  <si>
-    <t>10092</t>
-  </si>
-  <si>
-    <t>.731</t>
-  </si>
-  <si>
-    <t>9358</t>
-  </si>
-  <si>
-    <t>7.351</t>
-  </si>
-  <si>
-    <t>9984</t>
-  </si>
-  <si>
-    <t>7.404</t>
-  </si>
-  <si>
-    <t>9999</t>
-  </si>
-  <si>
-    <t>8.732</t>
-  </si>
-  <si>
-    <t>10055</t>
-  </si>
-  <si>
     <t>H-S1DW0ATL3V-EX-D1-DF</t>
   </si>
   <si>
     <t>IceMax / ATL DC104 Water Injector Drilling: ATL DC104 WI - Drill Well - DRILL</t>
   </si>
   <si>
-    <t>32.679</t>
-  </si>
-  <si>
-    <t>10131</t>
-  </si>
-  <si>
     <t>H-S1DW0THR92-EX-D1-DU</t>
   </si>
   <si>
     <t>C-Constructor / MC777-2 (NPi22) Drilling Long Lead: MC 777-2 Drill Well - LLs intangible</t>
   </si>
   <si>
-    <t>.033</t>
-  </si>
-  <si>
-    <t>10124</t>
-  </si>
-  <si>
     <t>H-S1DW0MAD5X-EX-D1-DF</t>
   </si>
   <si>
     <t>Ocean Blacklion / MD2 GC826-13 MD122 (SP3) - Drill Long Le: MD2 GC826-13 MD122 (SP3) Producer Drilli</t>
   </si>
   <si>
-    <t>28.261</t>
-  </si>
-  <si>
-    <t>10114</t>
-  </si>
-  <si>
-    <t>.35</t>
-  </si>
-  <si>
     <t>05-25</t>
   </si>
   <si>
@@ -1090,67 +970,16 @@
     <t>Stena IceMAX</t>
   </si>
   <si>
-    <t>19.451</t>
-  </si>
-  <si>
-    <t>63.655</t>
-  </si>
-  <si>
-    <t>9.681</t>
-  </si>
-  <si>
-    <t>61.058</t>
-  </si>
-  <si>
-    <t>47.463</t>
-  </si>
-  <si>
-    <t>41.618</t>
-  </si>
-  <si>
-    <t>12.316</t>
-  </si>
-  <si>
-    <t>10140</t>
-  </si>
-  <si>
     <t>H-S1DW0MAD5V-EX-D1-CF</t>
   </si>
   <si>
     <t>Deepwater Invictus / Argos SWX4 BP01 (GC 868-1) Producer Comp: Mad Dog Compl Well - COMPLETE LL</t>
   </si>
   <si>
-    <t>26.346</t>
-  </si>
-  <si>
-    <t>20.596</t>
-  </si>
-  <si>
-    <t>10.041</t>
-  </si>
-  <si>
-    <t>12.884</t>
-  </si>
-  <si>
-    <t>8.173</t>
-  </si>
-  <si>
-    <t>7.548</t>
-  </si>
-  <si>
-    <t>10130</t>
-  </si>
-  <si>
     <t>H-S1DC1MAD5E-EX-I0-T0-E5</t>
   </si>
   <si>
     <t>Olympic Challenger / Argos Southwest Extension Fabrication AF: ASWX - Installation-System Tie-In</t>
-  </si>
-  <si>
-    <t>.565</t>
-  </si>
-  <si>
-    <t>.209</t>
   </si>
   <si>
     <t>06-25</t>
@@ -1301,7 +1130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1333,19 +1162,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1353,6 +1176,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1969,8 +1795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H360"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A329" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E358" sqref="E358"/>
+    <sheetView tabSelected="1" topLeftCell="A341" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C334" sqref="C334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2077,7 +1903,7 @@
         <v>31.177</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>289</v>
@@ -2623,7 +2449,7 @@
         <v>60.441000000000003</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="F25" s="11" t="s">
         <v>290</v>
@@ -3169,7 +2995,7 @@
         <v>62.722000000000001</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="F46" s="11" t="s">
         <v>291</v>
@@ -3611,7 +3437,7 @@
         <v>42.377000000000002</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="F63" s="11" t="s">
         <v>292</v>
@@ -3741,7 +3567,7 @@
         <v>19.596</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="F68" s="11" t="s">
         <v>292</v>
@@ -4105,7 +3931,7 @@
         <v>62.593000000000004</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="F82" s="11" t="s">
         <v>293</v>
@@ -4677,7 +4503,7 @@
         <v>56.954000000000001</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="F104" s="11" t="s">
         <v>294</v>
@@ -5301,7 +5127,7 @@
         <v>52.415999999999997</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="F128" s="11" t="s">
         <v>295</v>
@@ -5405,7 +5231,7 @@
         <v>2.617</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="F132" s="11" t="s">
         <v>295</v>
@@ -5509,7 +5335,7 @@
         <v>95.087999999999994</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="F136" s="11" t="s">
         <v>296</v>
@@ -5873,7 +5699,7 @@
         <v>3.242</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="F150" s="11" t="s">
         <v>296</v>
@@ -5899,7 +5725,7 @@
         <v>1.036</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="F151" s="11" t="s">
         <v>296</v>
@@ -6003,7 +5829,7 @@
         <v>33.215000000000003</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="F155" s="11" t="s">
         <v>297</v>
@@ -6367,7 +6193,7 @@
         <v>40.658999999999999</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="F169" s="11" t="s">
         <v>297</v>
@@ -6393,7 +6219,7 @@
         <v>2.548</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="F170" s="11" t="s">
         <v>297</v>
@@ -6627,7 +6453,7 @@
         <v>67.941999999999993</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="F179" s="11" t="s">
         <v>298</v>
@@ -7147,7 +6973,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="F199" s="11" t="s">
         <v>298</v>
@@ -7251,7 +7077,7 @@
         <v>27.385999999999999</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="F203" s="11" t="s">
         <v>299</v>
@@ -7849,7 +7675,7 @@
         <v>29.285</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="F226" s="11" t="s">
         <v>300</v>
@@ -7875,7 +7701,7 @@
         <v>19.824000000000002</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="F227" s="11" t="s">
         <v>300</v>
@@ -8317,7 +8143,7 @@
         <v>0.72499999999999998</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="F244" s="11" t="s">
         <v>300</v>
@@ -8369,7 +8195,7 @@
         <v>3.593</v>
       </c>
       <c r="E246" s="5" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="F246" s="11" t="s">
         <v>301</v>
@@ -8473,7 +8299,7 @@
         <v>43.456000000000003</v>
       </c>
       <c r="E250" s="5" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="F250" s="11" t="s">
         <v>301</v>
@@ -8941,7 +8767,7 @@
         <v>19.37</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="F268" s="11" t="s">
         <v>302</v>
@@ -8967,7 +8793,7 @@
         <v>40.31</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="F269" s="11" t="s">
         <v>302</v>
@@ -9487,7 +9313,7 @@
         <v>43.725000000000001</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="F289" s="11" t="s">
         <v>303</v>
@@ -9981,7 +9807,7 @@
         <v>14.464</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="F308" s="11" t="s">
         <v>304</v>
@@ -10085,7 +9911,7 @@
         <v>43.155999999999999</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="F312" s="11" t="s">
         <v>304</v>
@@ -10358,8 +10184,8 @@
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A323" s="1" t="s">
-        <v>305</v>
+      <c r="A323" s="19">
+        <v>10101</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>255</v>
@@ -10367,25 +10193,25 @@
       <c r="C323" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D323" s="1" t="s">
-        <v>306</v>
+      <c r="D323" s="19">
+        <v>25.873999999999999</v>
       </c>
       <c r="E323" s="1" t="s">
         <v>109</v>
       </c>
       <c r="F323" s="12" t="s">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="G323" s="1" t="s">
-        <v>354</v>
+        <v>314</v>
       </c>
       <c r="H323" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A324" s="1" t="s">
-        <v>307</v>
+      <c r="A324" s="19">
+        <v>10133</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>275</v>
@@ -10393,14 +10219,14 @@
       <c r="C324" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D324" s="1" t="s">
-        <v>308</v>
+      <c r="D324" s="19">
+        <v>65.501999999999995</v>
       </c>
       <c r="E324" s="1" t="s">
         <v>252</v>
       </c>
       <c r="F324" s="12" t="s">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="G324" s="1" t="s">
         <v>282</v>
@@ -10410,8 +10236,8 @@
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A325" s="1" t="s">
-        <v>309</v>
+      <c r="A325" s="19">
+        <v>10134</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>259</v>
@@ -10419,14 +10245,14 @@
       <c r="C325" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D325" s="1" t="s">
-        <v>310</v>
+      <c r="D325" s="19">
+        <v>0.251</v>
       </c>
       <c r="E325" s="1" t="s">
         <v>106</v>
       </c>
       <c r="F325" s="12" t="s">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="G325" s="1" t="s">
         <v>288</v>
@@ -10436,8 +10262,8 @@
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A326" s="1" t="s">
-        <v>311</v>
+      <c r="A326" s="19">
+        <v>10138</v>
       </c>
       <c r="B326" s="1" t="s">
         <v>269</v>
@@ -10445,14 +10271,14 @@
       <c r="C326" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D326" s="1" t="s">
-        <v>312</v>
+      <c r="D326" s="19">
+        <v>7.7359999999999998</v>
       </c>
       <c r="E326" s="1" t="s">
         <v>106</v>
       </c>
       <c r="F326" s="12" t="s">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="G326" s="1" t="s">
         <v>284</v>
@@ -10462,8 +10288,8 @@
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A327" s="1" t="s">
-        <v>313</v>
+      <c r="A327" s="19">
+        <v>10139</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>271</v>
@@ -10471,14 +10297,14 @@
       <c r="C327" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D327" s="1" t="s">
-        <v>314</v>
+      <c r="D327" s="19">
+        <v>40.106000000000002</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="F327" s="12" t="s">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="G327" s="1" t="s">
         <v>285</v>
@@ -10488,8 +10314,8 @@
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A328" s="1" t="s">
-        <v>315</v>
+      <c r="A328" s="19">
+        <v>9359</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>30</v>
@@ -10497,14 +10323,14 @@
       <c r="C328" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D328" s="1" t="s">
-        <v>316</v>
+      <c r="D328" s="19">
+        <v>15.458</v>
       </c>
       <c r="E328" s="1" t="s">
         <v>112</v>
       </c>
       <c r="F328" s="12" t="s">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="G328" s="1" t="s">
         <v>281</v>
@@ -10514,8 +10340,8 @@
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A329" s="1" t="s">
-        <v>317</v>
+      <c r="A329" s="19">
+        <v>9360</v>
       </c>
       <c r="B329" s="1" t="s">
         <v>0</v>
@@ -10523,14 +10349,14 @@
       <c r="C329" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D329" s="1" t="s">
-        <v>318</v>
+      <c r="D329" s="19">
+        <v>22.469000000000001</v>
       </c>
       <c r="E329" s="1" t="s">
         <v>105</v>
       </c>
       <c r="F329" s="12" t="s">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="G329" s="1" t="s">
         <v>281</v>
@@ -10540,8 +10366,8 @@
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A330" s="1" t="s">
-        <v>319</v>
+      <c r="A330" s="19">
+        <v>9361</v>
       </c>
       <c r="B330" s="1" t="s">
         <v>21</v>
@@ -10549,14 +10375,14 @@
       <c r="C330" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D330" s="1" t="s">
-        <v>320</v>
+      <c r="D330" s="19">
+        <v>18.071999999999999</v>
       </c>
       <c r="E330" s="1" t="s">
         <v>110</v>
       </c>
       <c r="F330" s="12" t="s">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="G330" s="1" t="s">
         <v>281</v>
@@ -10566,8 +10392,8 @@
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A331" s="1" t="s">
-        <v>321</v>
+      <c r="A331" s="19">
+        <v>9364</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>32</v>
@@ -10575,14 +10401,14 @@
       <c r="C331" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D331" s="1" t="s">
-        <v>322</v>
+      <c r="D331" s="19">
+        <v>1.2490000000000001</v>
       </c>
       <c r="E331" s="1" t="s">
         <v>112</v>
       </c>
       <c r="F331" s="12" t="s">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="G331" s="1" t="s">
         <v>281</v>
@@ -10592,23 +10418,23 @@
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A332" s="1" t="s">
-        <v>323</v>
+      <c r="A332" s="19">
+        <v>10115</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D332" s="1" t="s">
-        <v>326</v>
+        <v>306</v>
+      </c>
+      <c r="D332" s="19">
+        <v>0.25700000000000001</v>
       </c>
       <c r="E332" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F332" s="12" t="s">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="G332" s="1" t="s">
         <v>282</v>
@@ -10618,8 +10444,8 @@
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A333" s="1" t="s">
-        <v>327</v>
+      <c r="A333" s="19">
+        <v>10116</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>248</v>
@@ -10627,14 +10453,14 @@
       <c r="C333" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D333" s="1" t="s">
-        <v>328</v>
+      <c r="D333" s="19">
+        <v>57.445</v>
       </c>
       <c r="E333" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F333" s="12" t="s">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="G333" s="1" t="s">
         <v>282</v>
@@ -10644,8 +10470,8 @@
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A334" s="1" t="s">
-        <v>329</v>
+      <c r="A334" s="19">
+        <v>10137</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>277</v>
@@ -10653,14 +10479,14 @@
       <c r="C334" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="D334" s="1" t="s">
-        <v>330</v>
+      <c r="D334" s="19">
+        <v>36.703000000000003</v>
       </c>
       <c r="E334" s="1" t="s">
         <v>108</v>
       </c>
       <c r="F334" s="12" t="s">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="G334" s="1" t="s">
         <v>285</v>
@@ -10670,8 +10496,8 @@
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A335" s="1" t="s">
-        <v>331</v>
+      <c r="A335" s="19">
+        <v>10092</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>205</v>
@@ -10679,14 +10505,14 @@
       <c r="C335" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D335" s="1" t="s">
-        <v>332</v>
+      <c r="D335" s="19">
+        <v>0.73099999999999998</v>
       </c>
       <c r="E335" s="1" t="s">
         <v>108</v>
       </c>
       <c r="F335" s="12" t="s">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="G335" s="1" t="s">
         <v>282</v>
@@ -10696,8 +10522,8 @@
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A336" s="1" t="s">
-        <v>333</v>
+      <c r="A336" s="19">
+        <v>9358</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>12</v>
@@ -10705,14 +10531,14 @@
       <c r="C336" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D336" s="1" t="s">
-        <v>334</v>
+      <c r="D336" s="19">
+        <v>7.351</v>
       </c>
       <c r="E336" s="1" t="s">
         <v>107</v>
       </c>
       <c r="F336" s="12" t="s">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="G336" s="1" t="s">
         <v>281</v>
@@ -10722,8 +10548,8 @@
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A337" s="1" t="s">
-        <v>335</v>
+      <c r="A337" s="19">
+        <v>9984</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>11</v>
@@ -10731,14 +10557,14 @@
       <c r="C337" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D337" s="1" t="s">
-        <v>336</v>
+      <c r="D337" s="19">
+        <v>7.4039999999999999</v>
       </c>
       <c r="E337" s="1" t="s">
         <v>113</v>
       </c>
       <c r="F337" s="12" t="s">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="G337" s="1" t="s">
         <v>286</v>
@@ -10748,8 +10574,8 @@
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A338" s="1" t="s">
-        <v>337</v>
+      <c r="A338" s="19">
+        <v>9999</v>
       </c>
       <c r="B338" s="1" t="s">
         <v>27</v>
@@ -10757,14 +10583,14 @@
       <c r="C338" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D338" s="1" t="s">
-        <v>338</v>
+      <c r="D338" s="19">
+        <v>8.7319999999999993</v>
       </c>
       <c r="E338" s="1" t="s">
         <v>111</v>
       </c>
       <c r="F338" s="12" t="s">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="G338" s="1" t="s">
         <v>281</v>
@@ -10774,23 +10600,23 @@
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A339" s="1" t="s">
-        <v>339</v>
+      <c r="A339" s="19">
+        <v>10055</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D339" s="1" t="s">
-        <v>342</v>
+        <v>308</v>
+      </c>
+      <c r="D339" s="19">
+        <v>32.679000000000002</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="F339" s="12" t="s">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="G339" s="1" t="s">
         <v>282</v>
@@ -10800,23 +10626,23 @@
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A340" s="1" t="s">
-        <v>343</v>
+      <c r="A340" s="19">
+        <v>10131</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>344</v>
+        <v>309</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="D340" s="1" t="s">
-        <v>346</v>
+        <v>310</v>
+      </c>
+      <c r="D340" s="19">
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="E340" s="1" t="s">
         <v>200</v>
       </c>
       <c r="F340" s="12" t="s">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="G340" s="1" t="s">
         <v>281</v>
@@ -10826,23 +10652,23 @@
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A341" s="1" t="s">
-        <v>347</v>
+      <c r="A341" s="19">
+        <v>10124</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>348</v>
+        <v>311</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D341" s="1" t="s">
-        <v>350</v>
+        <v>312</v>
+      </c>
+      <c r="D341" s="19">
+        <v>28.260999999999999</v>
       </c>
       <c r="E341" s="1" t="s">
         <v>109</v>
       </c>
       <c r="F341" s="12" t="s">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="G341" s="1" t="s">
         <v>282</v>
@@ -10852,8 +10678,8 @@
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A342" s="1" t="s">
-        <v>351</v>
+      <c r="A342" s="19">
+        <v>10114</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>253</v>
@@ -10861,14 +10687,14 @@
       <c r="C342" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D342" s="1" t="s">
-        <v>352</v>
+      <c r="D342" s="19">
+        <v>0.35</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="F342" s="12" t="s">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="G342" s="1" t="s">
         <v>282</v>
@@ -10878,8 +10704,8 @@
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A343" s="1" t="s">
-        <v>307</v>
+      <c r="A343" s="19">
+        <v>10133</v>
       </c>
       <c r="B343" s="1" t="s">
         <v>275</v>
@@ -10887,14 +10713,14 @@
       <c r="C343" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D343" s="1" t="s">
-        <v>356</v>
+      <c r="D343" s="19">
+        <v>19.451000000000001</v>
       </c>
       <c r="E343" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="F343" s="20" t="s">
-        <v>377</v>
+      <c r="F343" s="18" t="s">
+        <v>320</v>
       </c>
       <c r="G343" s="2" t="s">
         <v>282</v>
@@ -10904,8 +10730,8 @@
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A344" s="1" t="s">
-        <v>329</v>
+      <c r="A344" s="19">
+        <v>10137</v>
       </c>
       <c r="B344" s="1" t="s">
         <v>277</v>
@@ -10913,14 +10739,14 @@
       <c r="C344" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="D344" s="1" t="s">
-        <v>357</v>
+      <c r="D344" s="19">
+        <v>63.655000000000001</v>
       </c>
       <c r="E344" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F344" s="20" t="s">
-        <v>377</v>
+      <c r="F344" s="18" t="s">
+        <v>320</v>
       </c>
       <c r="G344" s="2" t="s">
         <v>282</v>
@@ -10930,8 +10756,8 @@
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A345" s="1" t="s">
-        <v>315</v>
+      <c r="A345" s="19">
+        <v>9359</v>
       </c>
       <c r="B345" s="1" t="s">
         <v>30</v>
@@ -10939,14 +10765,14 @@
       <c r="C345" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D345" s="1" t="s">
-        <v>358</v>
+      <c r="D345" s="19">
+        <v>9.6809999999999992</v>
       </c>
       <c r="E345" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F345" s="20" t="s">
-        <v>377</v>
+      <c r="F345" s="18" t="s">
+        <v>320</v>
       </c>
       <c r="G345" s="2" t="s">
         <v>281</v>
@@ -10956,23 +10782,23 @@
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A346" s="1" t="s">
-        <v>339</v>
+      <c r="A346" s="19">
+        <v>10055</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D346" s="1" t="s">
-        <v>359</v>
+        <v>308</v>
+      </c>
+      <c r="D346" s="19">
+        <v>61.058</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F346" s="20" t="s">
-        <v>377</v>
+        <v>315</v>
+      </c>
+      <c r="F346" s="18" t="s">
+        <v>320</v>
       </c>
       <c r="G346" s="2" t="s">
         <v>282</v>
@@ -10982,8 +10808,8 @@
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A347" s="1" t="s">
-        <v>327</v>
+      <c r="A347" s="19">
+        <v>10116</v>
       </c>
       <c r="B347" s="1" t="s">
         <v>248</v>
@@ -10991,14 +10817,14 @@
       <c r="C347" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D347" s="1" t="s">
-        <v>360</v>
+      <c r="D347" s="19">
+        <v>47.463000000000001</v>
       </c>
       <c r="E347" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F347" s="20" t="s">
-        <v>377</v>
+      <c r="F347" s="18" t="s">
+        <v>320</v>
       </c>
       <c r="G347" s="2" t="s">
         <v>282</v>
@@ -11008,23 +10834,23 @@
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A348" s="1" t="s">
-        <v>347</v>
+      <c r="A348" s="19">
+        <v>10124</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>348</v>
+        <v>311</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D348" s="1" t="s">
-        <v>361</v>
+        <v>312</v>
+      </c>
+      <c r="D348" s="19">
+        <v>41.618000000000002</v>
       </c>
       <c r="E348" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F348" s="20" t="s">
-        <v>377</v>
+      <c r="F348" s="18" t="s">
+        <v>320</v>
       </c>
       <c r="G348" s="2" t="s">
         <v>282</v>
@@ -11034,8 +10860,8 @@
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A349" s="1" t="s">
-        <v>311</v>
+      <c r="A349" s="19">
+        <v>10138</v>
       </c>
       <c r="B349" s="1" t="s">
         <v>269</v>
@@ -11043,14 +10869,14 @@
       <c r="C349" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D349" s="1" t="s">
-        <v>362</v>
+      <c r="D349" s="19">
+        <v>12.316000000000001</v>
       </c>
       <c r="E349" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F349" s="20" t="s">
-        <v>377</v>
+      <c r="F349" s="18" t="s">
+        <v>320</v>
       </c>
       <c r="G349" s="2" t="s">
         <v>282</v>
@@ -11060,23 +10886,23 @@
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A350" s="1" t="s">
-        <v>363</v>
+      <c r="A350" s="19">
+        <v>10140</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>364</v>
+        <v>316</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D350" s="1" t="s">
-        <v>366</v>
+        <v>317</v>
+      </c>
+      <c r="D350" s="19">
+        <v>26.346</v>
       </c>
       <c r="E350" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="F350" s="20" t="s">
-        <v>377</v>
+      <c r="F350" s="18" t="s">
+        <v>320</v>
       </c>
       <c r="G350" s="2" t="s">
         <v>282</v>
@@ -11086,8 +10912,8 @@
       </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A351" s="1" t="s">
-        <v>317</v>
+      <c r="A351" s="19">
+        <v>9360</v>
       </c>
       <c r="B351" s="1" t="s">
         <v>0</v>
@@ -11095,14 +10921,14 @@
       <c r="C351" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D351" s="1" t="s">
-        <v>367</v>
+      <c r="D351" s="19">
+        <v>20.596</v>
       </c>
       <c r="E351" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F351" s="20" t="s">
-        <v>377</v>
+      <c r="F351" s="18" t="s">
+        <v>320</v>
       </c>
       <c r="G351" s="2" t="s">
         <v>281</v>
@@ -11112,8 +10938,8 @@
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A352" s="1" t="s">
-        <v>333</v>
+      <c r="A352" s="19">
+        <v>9358</v>
       </c>
       <c r="B352" s="1" t="s">
         <v>12</v>
@@ -11121,14 +10947,14 @@
       <c r="C352" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D352" s="1" t="s">
-        <v>368</v>
+      <c r="D352" s="19">
+        <v>10.041</v>
       </c>
       <c r="E352" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F352" s="20" t="s">
-        <v>377</v>
+      <c r="F352" s="18" t="s">
+        <v>320</v>
       </c>
       <c r="G352" s="2" t="s">
         <v>281</v>
@@ -11138,8 +10964,8 @@
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A353" s="1" t="s">
-        <v>319</v>
+      <c r="A353" s="19">
+        <v>9361</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>21</v>
@@ -11147,14 +10973,14 @@
       <c r="C353" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D353" s="1" t="s">
-        <v>369</v>
+      <c r="D353" s="19">
+        <v>12.884</v>
       </c>
       <c r="E353" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="F353" s="20" t="s">
-        <v>377</v>
+      <c r="F353" s="18" t="s">
+        <v>320</v>
       </c>
       <c r="G353" s="2" t="s">
         <v>281</v>
@@ -11164,8 +10990,8 @@
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A354" s="1" t="s">
-        <v>335</v>
+      <c r="A354" s="19">
+        <v>9984</v>
       </c>
       <c r="B354" s="1" t="s">
         <v>11</v>
@@ -11173,14 +10999,14 @@
       <c r="C354" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D354" s="1" t="s">
-        <v>370</v>
+      <c r="D354" s="19">
+        <v>8.173</v>
       </c>
       <c r="E354" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F354" s="20" t="s">
-        <v>377</v>
+      <c r="F354" s="18" t="s">
+        <v>320</v>
       </c>
       <c r="G354" s="2" t="s">
         <v>286</v>
@@ -11190,8 +11016,8 @@
       </c>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A355" s="1" t="s">
-        <v>337</v>
+      <c r="A355" s="19">
+        <v>9999</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>27</v>
@@ -11199,14 +11025,14 @@
       <c r="C355" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D355" s="1" t="s">
-        <v>371</v>
+      <c r="D355" s="19">
+        <v>7.548</v>
       </c>
       <c r="E355" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F355" s="20" t="s">
-        <v>377</v>
+      <c r="F355" s="18" t="s">
+        <v>320</v>
       </c>
       <c r="G355" s="2" t="s">
         <v>281</v>
@@ -11216,23 +11042,23 @@
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A356" s="1" t="s">
-        <v>372</v>
+      <c r="A356" s="19">
+        <v>10130</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>373</v>
+        <v>318</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="D356" s="1" t="s">
-        <v>375</v>
+        <v>319</v>
+      </c>
+      <c r="D356" s="19">
+        <v>0.56499999999999995</v>
       </c>
       <c r="E356" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F356" s="20" t="s">
-        <v>377</v>
+      <c r="F356" s="18" t="s">
+        <v>320</v>
       </c>
       <c r="G356" s="2" t="s">
         <v>281</v>
@@ -11242,8 +11068,8 @@
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A357" s="1" t="s">
-        <v>321</v>
+      <c r="A357" s="19">
+        <v>9364</v>
       </c>
       <c r="B357" s="1" t="s">
         <v>32</v>
@@ -11251,14 +11077,14 @@
       <c r="C357" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D357" s="1" t="s">
-        <v>376</v>
+      <c r="D357" s="19">
+        <v>0.20899999999999999</v>
       </c>
       <c r="E357" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F357" s="20" t="s">
-        <v>377</v>
+      <c r="F357" s="18" t="s">
+        <v>320</v>
       </c>
       <c r="G357" s="2" t="s">
         <v>281</v>
@@ -11269,33 +11095,33 @@
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A358" s="1"/>
-      <c r="B358" s="16"/>
-      <c r="C358" s="16"/>
-      <c r="D358" s="13"/>
+      <c r="B358" s="15"/>
+      <c r="C358" s="15"/>
+      <c r="D358" s="1"/>
       <c r="E358" s="1"/>
-      <c r="F358" s="14"/>
+      <c r="F358" s="13"/>
       <c r="G358" s="2"/>
-      <c r="H358" s="16"/>
+      <c r="H358" s="15"/>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A359" s="1"/>
-      <c r="B359" s="16"/>
-      <c r="C359" s="16"/>
-      <c r="D359" s="13"/>
+      <c r="B359" s="15"/>
+      <c r="C359" s="15"/>
+      <c r="D359" s="1"/>
       <c r="E359" s="1"/>
-      <c r="F359" s="14"/>
+      <c r="F359" s="13"/>
       <c r="G359" s="2"/>
-      <c r="H359" s="16"/>
+      <c r="H359" s="15"/>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A360" s="15"/>
-      <c r="B360" s="16"/>
-      <c r="C360" s="16"/>
-      <c r="D360" s="17"/>
-      <c r="E360" s="15"/>
-      <c r="F360" s="18"/>
-      <c r="G360" s="19"/>
-      <c r="H360" s="16"/>
+      <c r="A360" s="14"/>
+      <c r="B360" s="15"/>
+      <c r="C360" s="15"/>
+      <c r="D360" s="14"/>
+      <c r="E360" s="14"/>
+      <c r="F360" s="16"/>
+      <c r="G360" s="17"/>
+      <c r="H360" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
